--- a/medicine/Psychotrope/Eschweger_Klosterbrauerei/Eschweger_Klosterbrauerei.xlsx
+++ b/medicine/Psychotrope/Eschweger_Klosterbrauerei/Eschweger_Klosterbrauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eschweger Klosterbrauerei est une brasserie dans l'ancienne brasserie d'Eschwege, dans le Land de Hesse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maître boucher et aubergiste George Christoph Andreas fonde la brasserie en 1839. En 1875, Jacob Andreas, le fils du fondateur, installe la brasserie dans l'ancienne abbaye augustine. En 1880, il y a six brasseries à Eschwege.
 En 1906, Ernst Andreas reprend l'entreprise et la dirige à partir de 1908 avec son beau-frère Eduard Döhle dans une société par actions. Elle acquiert Bergschlößchen-Brauerei en 1912 puis Bürgerliche Brauhaus à Bad Sooden-Allendorf en 1927.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre la marque principale Eschwege Klosterbräu, la brasserie privée produit les bières de la marque Jacobinus.
 Eschweger Klosterbräu Alkoholfrei
